--- a/tables/HMXBkaper.xlsx
+++ b/tables/HMXBkaper.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luukv\Documenten\NatuurSterrkenkundeMasterProject\CodeMP\MasterProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luukv\Documenten\NatuurSterrkenkundeMasterProject\CodeMP\MasterProject\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D577C7-1230-4E56-B414-EEA2ED15B15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03D4399F-7AAA-4940-B917-175D5EFAE05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{050E6E13-3082-4035-A211-BD55BF94490B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>B1 Ia</t>
   </si>
@@ -77,18 +77,9 @@
     <t>spectraltype</t>
   </si>
   <si>
-    <t>ruwe</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
     <t>spinperiod</t>
   </si>
   <si>
-    <t>eclipseduration</t>
-  </si>
-  <si>
     <t>RV</t>
   </si>
   <si>
@@ -99,21 +90,6 @@
   </si>
   <si>
     <t>Mx</t>
-  </si>
-  <si>
-    <t>parallax</t>
-  </si>
-  <si>
-    <t>errparallax</t>
-  </si>
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>distanceBJ</t>
-  </si>
-  <si>
-    <t>luminosity</t>
   </si>
   <si>
     <t>2S0114+650(K)</t>
@@ -507,24 +483,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4FDC717-015C-492F-835A-4C3383CC5B78}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="F1" activeCellId="2" sqref="C1:C1048576 D1:D1048576 F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -546,242 +518,218 @@
       <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>860</v>
+      </c>
+      <c r="D2">
+        <v>32</v>
+      </c>
       <c r="E2">
-        <v>860</v>
+        <v>16</v>
       </c>
       <c r="G2">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>16</v>
-      </c>
-      <c r="J2">
         <v>1.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
+      <c r="C3">
+        <v>0.71</v>
+      </c>
       <c r="E3">
-        <v>0.71</v>
-      </c>
-      <c r="H3">
         <v>17.2</v>
       </c>
-      <c r="I3">
+      <c r="F3">
         <v>15</v>
       </c>
-      <c r="J3">
+      <c r="G3">
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>13.5</v>
+      </c>
       <c r="E4">
-        <v>13.5</v>
-      </c>
-      <c r="H4">
         <v>15.8</v>
       </c>
-      <c r="I4">
+      <c r="F4">
         <v>8</v>
       </c>
-      <c r="J4">
+      <c r="G4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>283</v>
+      </c>
+      <c r="D5">
+        <v>35</v>
+      </c>
       <c r="E5">
-        <v>283</v>
+        <v>23.9</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
       </c>
       <c r="G5">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>23.9</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5">
         <v>1.9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>4.84</v>
+      </c>
+      <c r="D6">
+        <v>42</v>
+      </c>
       <c r="E6">
-        <v>4.84</v>
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>42</v>
-      </c>
-      <c r="H6">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="I6">
-        <v>11</v>
-      </c>
-      <c r="J6">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>696</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
       <c r="E7">
-        <v>696</v>
+        <v>40</v>
       </c>
       <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7">
-        <v>40</v>
-      </c>
-      <c r="J7">
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>529</v>
+      </c>
+      <c r="D8">
+        <v>85</v>
+      </c>
       <c r="E8">
-        <v>529</v>
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>85</v>
-      </c>
-      <c r="H8">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="I8">
-        <v>15</v>
-      </c>
-      <c r="J8">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
+      <c r="D9">
+        <v>76</v>
+      </c>
+      <c r="E9">
+        <v>52</v>
+      </c>
+      <c r="F9">
+        <v>22</v>
+      </c>
       <c r="G9">
-        <v>76</v>
-      </c>
-      <c r="H9">
-        <v>52</v>
-      </c>
-      <c r="I9">
-        <v>22</v>
-      </c>
-      <c r="J9">
         <v>1.8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>438</v>
+      </c>
       <c r="E10">
-        <v>438</v>
-      </c>
-      <c r="H10">
         <v>9</v>
       </c>
-      <c r="J10">
+      <c r="G10">
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="J11">
+      <c r="G11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
+      <c r="D12">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>17.8</v>
+      </c>
       <c r="G12">
-        <v>20</v>
-      </c>
-      <c r="H12">
-        <v>17.8</v>
-      </c>
-      <c r="J12">
         <v>10</v>
       </c>
     </row>
